--- a/Dataset/Folds/Fold_1/Excel/64.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="322">
   <si>
     <t>Doi</t>
   </si>
@@ -1002,6 +1002,75 @@
   </si>
   <si>
     <t>[ X.%Luo%null%1,                            H.% Xia%null%1,                            W.% Yang%null%1,                            B.% Wang%null%0,                            T.% Guo%null%1,                            J.% Xiong%null%1,                            Z.% Jiang%null%1,                            Y.% Liu%null%0,                            X.% Yan%null%1,                            W.% Zhou%null%1,                            L.% Ye%null%1,                            B. % Zhang%null%1,         X.%Luo%null%1,         H.% Xia%null%1,         W.% Yang%null%1,         B.% Wang%null%0,         T.% Guo%null%1,         J.% Xiong%null%1,         Z.% Jiang%null%1,         Y.% Liu%null%0,         X.% Yan%null%1,         W.% Zhou%null%0,         L.% Ye%null%1,         B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                            Xinsheng%Yan%NULL%1,                            Qingkun%Fan%NULL%1,                            Haiyan%Liu%NULL%1,                            Xintian%Liu%NULL%1,                            Zejin%Liu%NULL%1,                            Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Rong%Liang%NULL%0,                            Cheng-Qing%Yang%NULL%0,                            Wen%Wang%NULL%0,                            Tan-Ze%Cao%NULL%0,                            Ming%Li%NULL%0,                            Guang-Yun%Guo%NULL%0,                            Juan%Du%NULL%0,                            Chun-Lan%Zheng%NULL%0,                            Qi%Zhu%NULL%0,                            Ming%Hu%NULL%0,                            Xu-Yan%Li%NULL%0,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                            Wenlin%Cheng%NULL%1,                            Lei%Yu%NULL%1,                            Ya-Kun%Liu%NULL%1,                            Xiaoyong%Hu%NULL%1,                            Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                            Anna Lisa%Ridolfo%NULL%0,                            Laura%Milazzo%NULL%0,                            Letizia%Oreni%NULL%0,                            Dario%Bernacchia%NULL%0,                            Matteo%Siano%NULL%0,                            Cecilia%Bonazzetti%NULL%0,                            Alice%Covizzi%NULL%0,                            Marco%Schiuma%NULL%0,                            Matteo%Passerini%NULL%0,                            Marco%Piscaglia%NULL%0,                            Massimo%Coen%NULL%0,                            Guido%Gubertini%NULL%0,                            Giuliano%Rizzardini%NULL%0,                            Chiara%Cogliati%NULL%0,                            Anna Maria%Brambilla%NULL%0,                            Riccardo%Colombo%NULL%0,                            Antonio%Castelli%NULL%0,                            Roberto%Rech%NULL%0,                            Agostino%Riva%NULL%0,                            Alessandro%Torre%NULL%0,                            Luca%Meroni%NULL%0,                            Stefano%Rusconi%NULL%0,                            Spinello%Antinori%NULL%0,                            Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%5,                            Huilong%Chen%NULL%5,                            Weiming%Yan%NULL%5,                            Danlei%Yang%NULL%5,                            Guang%Chen%NULL%5,                            Ke%Ma%NULL%6,                            Dong%Xu%NULL%7,                            Haijing%Yu%NULL%5,                            Hongwu%Wang%NULL%5,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%5,                            Jia%Chen%NULL%5,                            Chen%Ding%NULL%5,                            Xiaoping%Zhang%NULL%5,                            Jiaquan%Huang%NULL%5,                            Meifang%Han%NULL%5,                            Shusheng%Li%NULL%5,                            Xiaoping%Luo%NULL%5,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                             Xinsheng%Yan%NULL%1,                             Qingkun%Fan%NULL%1,                             Haiyan%Liu%NULL%1,                             Xintian%Liu%NULL%1,                             Zejin%Liu%NULL%1,                             Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                             Li-Rong%Liang%NULL%0,                             Cheng-Qing%Yang%NULL%0,                             Wen%Wang%NULL%0,                             Tan-Ze%Cao%NULL%0,                             Ming%Li%NULL%0,                             Guang-Yun%Guo%NULL%0,                             Juan%Du%NULL%0,                             Chun-Lan%Zheng%NULL%0,                             Qi%Zhu%NULL%0,                             Ming%Hu%NULL%0,                             Xu-Yan%Li%NULL%0,                             Peng%Peng%NULL%0,                             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                             Wenlin%Cheng%NULL%1,                             Lei%Yu%NULL%1,                             Ya-Kun%Liu%NULL%1,                             Xiaoyong%Hu%NULL%1,                             Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                             Anna Lisa%Ridolfo%NULL%0,                             Laura%Milazzo%NULL%0,                             Letizia%Oreni%NULL%0,                             Dario%Bernacchia%NULL%0,                             Matteo%Siano%NULL%0,                             Cecilia%Bonazzetti%NULL%0,                             Alice%Covizzi%NULL%0,                             Marco%Schiuma%NULL%0,                             Matteo%Passerini%NULL%0,                             Marco%Piscaglia%NULL%0,                             Massimo%Coen%NULL%0,                             Guido%Gubertini%NULL%0,                             Giuliano%Rizzardini%NULL%0,                             Chiara%Cogliati%NULL%0,                             Anna Maria%Brambilla%NULL%0,                             Riccardo%Colombo%NULL%0,                             Antonio%Castelli%NULL%0,                             Roberto%Rech%NULL%0,                             Agostino%Riva%NULL%0,                             Alessandro%Torre%NULL%0,                             Luca%Meroni%NULL%0,                             Stefano%Rusconi%NULL%0,                             Spinello%Antinori%NULL%0,                             Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%5,                             Huilong%Chen%NULL%5,                             Weiming%Yan%NULL%5,                             Danlei%Yang%NULL%5,                             Guang%Chen%NULL%5,                             Ke%Ma%NULL%6,                             Dong%Xu%NULL%7,                             Haijing%Yu%NULL%5,                             Hongwu%Wang%NULL%5,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%5,                             Jia%Chen%NULL%5,                             Chen%Ding%NULL%5,                             Xiaoping%Zhang%NULL%5,                             Jiaquan%Huang%NULL%5,                             Meifang%Han%NULL%5,                             Shusheng%Li%NULL%5,                             Xiaoping%Luo%NULL%5,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%0, Xinsheng%Yan%NULL%1, Qingkun%Fan%NULL%1, Haiyan%Liu%NULL%1, Xintian%Liu%NULL%1, Zejin%Liu%NULL%1, Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Rong%Liang%NULL%0, Cheng-Qing%Yang%NULL%0, Wen%Wang%NULL%0, Tan-Ze%Cao%NULL%0, Ming%Li%NULL%0, Guang-Yun%Guo%NULL%0, Juan%Du%NULL%0, Chun-Lan%Zheng%NULL%0, Qi%Zhu%NULL%0, Ming%Hu%NULL%0, Xu-Yan%Li%NULL%0, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Respiratory Society</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0, Anna Lisa%Ridolfo%NULL%0, Laura%Milazzo%NULL%0, Letizia%Oreni%NULL%0, Dario%Bernacchia%NULL%0, Matteo%Siano%NULL%0, Cecilia%Bonazzetti%NULL%0, Alice%Covizzi%NULL%0, Marco%Schiuma%NULL%0, Matteo%Passerini%NULL%0, Marco%Piscaglia%NULL%0, Massimo%Coen%NULL%0, Guido%Gubertini%NULL%0, Giuliano%Rizzardini%NULL%0, Chiara%Cogliati%NULL%0, Anna Maria%Brambilla%NULL%0, Riccardo%Colombo%NULL%0, Antonio%Castelli%NULL%0, Roberto%Rech%NULL%0, Agostino%Riva%NULL%0, Alessandro%Torre%NULL%0, Luca%Meroni%NULL%0, Stefano%Rusconi%NULL%0, Spinello%Antinori%NULL%0, Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1410,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1353,10 +1422,10 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
@@ -1373,7 +1442,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1385,10 +1454,10 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
@@ -1405,7 +1474,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1417,10 +1486,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
@@ -1437,7 +1506,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1449,10 +1518,10 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1538,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1481,10 +1550,10 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
@@ -1495,25 +1564,25 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>45</v>
@@ -1533,7 +1602,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1545,10 +1614,10 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
@@ -1559,25 +1628,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>45</v>
@@ -1591,28 +1660,28 @@
         <v>43980.0</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
         <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
